--- a/Excel_Stock/Stock_Trend_Explained.xlsx
+++ b/Excel_Stock/Stock_Trend_Explained.xlsx
@@ -109,6 +109,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -781,6 +782,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +889,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1512,6 +1515,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5653,7 +5657,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B41"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,7 +6072,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
